--- a/patient_data/patient_77.xlsx
+++ b/patient_data/patient_77.xlsx
@@ -758,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1164,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
